--- a/Code/Results/Cases/Case_2_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.0076166874471</v>
+        <v>13.45902438420715</v>
       </c>
       <c r="C2">
-        <v>14.62873754338243</v>
+        <v>8.528097289572054</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.85099241135551</v>
+        <v>19.79150204425236</v>
       </c>
       <c r="F2">
-        <v>33.09084753289766</v>
+        <v>40.13006075389559</v>
       </c>
       <c r="G2">
-        <v>32.60169452733687</v>
+        <v>32.33638601291391</v>
       </c>
       <c r="H2">
-        <v>10.25600780397575</v>
+        <v>14.82107250571386</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.690218980624449</v>
+        <v>8.014091543980664</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.02793513958838</v>
+        <v>18.94256346457001</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57988848650435</v>
+        <v>12.88173193828261</v>
       </c>
       <c r="C3">
-        <v>13.72114725861165</v>
+        <v>8.038005303371792</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.48453881296495</v>
+        <v>19.77046571639309</v>
       </c>
       <c r="F3">
-        <v>31.86193776080187</v>
+        <v>40.04689846697832</v>
       </c>
       <c r="G3">
-        <v>31.20321322561648</v>
+        <v>32.19126801691338</v>
       </c>
       <c r="H3">
-        <v>10.17114856724716</v>
+        <v>14.87069728856357</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.787777115707811</v>
+        <v>8.044455614491246</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.07679291803749</v>
+        <v>18.7547492509905</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.65511168460866</v>
+        <v>12.51612410237143</v>
       </c>
       <c r="C4">
-        <v>13.13543000975098</v>
+        <v>7.719914472239958</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.2595575325485</v>
+        <v>19.76010073047676</v>
       </c>
       <c r="F4">
-        <v>31.12114432110714</v>
+        <v>40.00803581651642</v>
       </c>
       <c r="G4">
-        <v>30.37616702523858</v>
+        <v>32.11879389546263</v>
       </c>
       <c r="H4">
-        <v>10.13267541045175</v>
+        <v>14.90535328309774</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.848918102131679</v>
+        <v>8.06400557225265</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.4715237483579</v>
+        <v>18.64180006536371</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.26602999668352</v>
+        <v>12.36455813565574</v>
       </c>
       <c r="C5">
-        <v>12.88958235547871</v>
+        <v>7.586012827571999</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.1679849461446</v>
+        <v>19.75652184725252</v>
       </c>
       <c r="F5">
-        <v>30.82303422756445</v>
+        <v>39.99527183353349</v>
       </c>
       <c r="G5">
-        <v>30.04739201926392</v>
+        <v>32.09345080329171</v>
       </c>
       <c r="H5">
-        <v>10.12026013709692</v>
+        <v>14.92052288852982</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.874161922587092</v>
+        <v>8.072200961388942</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.21972777388965</v>
+        <v>18.59641252347251</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2006813730022</v>
+        <v>12.33924218318894</v>
       </c>
       <c r="C6">
-        <v>12.84832704519878</v>
+        <v>7.563521657162964</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.15278913155599</v>
+        <v>19.75596662123224</v>
       </c>
       <c r="F6">
-        <v>30.77377036039943</v>
+        <v>39.99333806164358</v>
       </c>
       <c r="G6">
-        <v>29.99330644704577</v>
+        <v>32.08949580100947</v>
       </c>
       <c r="H6">
-        <v>10.11839076045159</v>
+        <v>14.92310485807988</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.878373941191983</v>
+        <v>8.073575629120782</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.17761352835484</v>
+        <v>18.58891589408523</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.64991405677366</v>
+        <v>12.51409014917219</v>
       </c>
       <c r="C7">
-        <v>13.13214342245667</v>
+        <v>7.71812588311631</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.25832196916839</v>
+        <v>19.76004984887407</v>
       </c>
       <c r="F7">
-        <v>31.11710821844551</v>
+        <v>40.00785123088571</v>
       </c>
       <c r="G7">
-        <v>30.37169923496689</v>
+        <v>32.1184351364141</v>
       </c>
       <c r="H7">
-        <v>10.13249498334251</v>
+        <v>14.90555363407589</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.849257198241823</v>
+        <v>8.064115171501808</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.4681484605904</v>
+        <v>18.64118530339398</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52525333796785</v>
+        <v>13.2624142094714</v>
       </c>
       <c r="C8">
-        <v>14.32169483933384</v>
+        <v>8.362699091861574</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.72469424166706</v>
+        <v>19.78372127173961</v>
       </c>
       <c r="F8">
-        <v>32.66444012543224</v>
+        <v>40.09885861674835</v>
       </c>
       <c r="G8">
-        <v>32.11311045302439</v>
+        <v>32.28290631998611</v>
       </c>
       <c r="H8">
-        <v>10.22382160405289</v>
+        <v>14.83731095091015</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.723609958480926</v>
+        <v>8.024373413283611</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.70450080212914</v>
+        <v>18.87734026698517</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.82665845475276</v>
+        <v>14.63291465482997</v>
       </c>
       <c r="C9">
-        <v>16.43001146479684</v>
+        <v>9.489146979754043</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.6353132746008</v>
+        <v>19.85022786459036</v>
       </c>
       <c r="F9">
-        <v>35.79611745311064</v>
+        <v>40.37373227514463</v>
       </c>
       <c r="G9">
-        <v>35.76709647675324</v>
+        <v>32.73652664586432</v>
       </c>
       <c r="H9">
-        <v>10.51817829366252</v>
+        <v>14.73694713029713</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.486255567275137</v>
+        <v>7.953597445012477</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.09388993256955</v>
+        <v>19.35724548136507</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03174576208233</v>
+        <v>15.57109545505918</v>
       </c>
       <c r="C10">
-        <v>17.84536266987319</v>
+        <v>10.23170607620581</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.29716030348607</v>
+        <v>19.9111110515796</v>
       </c>
       <c r="F10">
-        <v>38.14391392676559</v>
+        <v>40.63370847337481</v>
       </c>
       <c r="G10">
-        <v>38.58548161895094</v>
+        <v>33.14795514269333</v>
       </c>
       <c r="H10">
-        <v>10.81408451897454</v>
+        <v>14.68393009298633</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.316195506886503</v>
+        <v>7.905914260091892</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.85943811046452</v>
+        <v>19.71735858465026</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.98916911591218</v>
+        <v>15.98139369837426</v>
       </c>
       <c r="C11">
-        <v>18.46123553226093</v>
+        <v>10.55092244841084</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.59590785364097</v>
+        <v>19.94136478352881</v>
       </c>
       <c r="F11">
-        <v>39.22072574729513</v>
+        <v>40.76434623086038</v>
       </c>
       <c r="G11">
-        <v>39.89569223341886</v>
+        <v>33.35153933101523</v>
       </c>
       <c r="H11">
-        <v>10.9679172125378</v>
+        <v>14.66437492228718</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.239487969097442</v>
+        <v>7.885148961780028</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.6254291159672</v>
+        <v>19.88223319428863</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.34534499308095</v>
+        <v>16.13428623767779</v>
       </c>
       <c r="C12">
-        <v>18.69052998706439</v>
+        <v>10.66912455633096</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.70865160066828</v>
+        <v>19.95318376168888</v>
       </c>
       <c r="F12">
-        <v>39.62971570861544</v>
+        <v>40.8155695843891</v>
       </c>
       <c r="G12">
-        <v>40.39591897712842</v>
+        <v>33.43093467441599</v>
       </c>
       <c r="H12">
-        <v>11.02908874712844</v>
+        <v>14.65763086926088</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.210509934760146</v>
+        <v>7.877418084120746</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.91029169610134</v>
+        <v>19.94477001978994</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.26891667748061</v>
+        <v>16.10146986961446</v>
       </c>
       <c r="C13">
-        <v>18.64132004530784</v>
+        <v>10.64378680221687</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.6843880215521</v>
+        <v>19.9506222954819</v>
       </c>
       <c r="F13">
-        <v>39.54157774951032</v>
+        <v>40.80446016597873</v>
       </c>
       <c r="G13">
-        <v>40.28800303565725</v>
+        <v>33.41373408368785</v>
       </c>
       <c r="H13">
-        <v>11.01578210092062</v>
+        <v>14.65905384434605</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.216748191470885</v>
+        <v>7.879077185037298</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.84917037949755</v>
+        <v>19.93129782717796</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.01859862965098</v>
+        <v>15.99402249205547</v>
       </c>
       <c r="C14">
-        <v>18.48017772224648</v>
+        <v>10.56070070854159</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.60519131619716</v>
+        <v>19.94232990306255</v>
       </c>
       <c r="F14">
-        <v>39.25434900819938</v>
+        <v>40.76852541904957</v>
       </c>
       <c r="G14">
-        <v>39.9367638461736</v>
+        <v>33.35802545404711</v>
       </c>
       <c r="H14">
-        <v>10.97289045625251</v>
+        <v>14.66380680872111</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.237102683007709</v>
+        <v>7.884510286347634</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.64896831803052</v>
+        <v>19.88737636725412</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.86444670249493</v>
+        <v>15.92788217628129</v>
       </c>
       <c r="C15">
-        <v>18.38096571833169</v>
+        <v>10.50945915492762</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.55662957931538</v>
+        <v>19.93729762697467</v>
       </c>
       <c r="F15">
-        <v>39.07857272616128</v>
+        <v>40.74674191304329</v>
       </c>
       <c r="G15">
-        <v>39.72215380315429</v>
+        <v>33.32420027476685</v>
       </c>
       <c r="H15">
-        <v>10.94700273630362</v>
+        <v>14.66680436991402</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.249578686127988</v>
+        <v>7.887855452081273</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.52566581962513</v>
+        <v>19.86048507317971</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.96827247033521</v>
+        <v>15.54394016372692</v>
       </c>
       <c r="C16">
-        <v>17.80455912283541</v>
+        <v>10.21047004626632</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.27758495175877</v>
+        <v>19.90918492430625</v>
       </c>
       <c r="F16">
-        <v>38.07371355097406</v>
+        <v>40.62541785832121</v>
       </c>
       <c r="G16">
-        <v>38.50042252998981</v>
+        <v>33.13497601868824</v>
       </c>
       <c r="H16">
-        <v>10.80443118549101</v>
+        <v>14.68530031116468</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.321219614015939</v>
+        <v>7.907289897656226</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.80864286263938</v>
+        <v>19.7066006630892</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.40692796818202</v>
+        <v>15.30409971738655</v>
       </c>
       <c r="C17">
-        <v>17.44385264207132</v>
+        <v>10.02228577017968</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.10576330961445</v>
+        <v>19.89259013383685</v>
       </c>
       <c r="F17">
-        <v>37.45946475913325</v>
+        <v>40.55414141770537</v>
       </c>
       <c r="G17">
-        <v>37.75812148366569</v>
+        <v>33.0230596516728</v>
       </c>
       <c r="H17">
-        <v>10.72200143847753</v>
+        <v>14.69781917679295</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.365319428449841</v>
+        <v>7.919448998173388</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.35935136956108</v>
+        <v>19.61243291603187</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.0797453779849</v>
+        <v>15.16460350231801</v>
       </c>
       <c r="C18">
-        <v>17.23374348185921</v>
+        <v>9.912298698550263</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.00671894329405</v>
+        <v>19.88328632126216</v>
       </c>
       <c r="F18">
-        <v>37.10699013124045</v>
+        <v>40.51431147241187</v>
       </c>
       <c r="G18">
-        <v>37.33380712805609</v>
+        <v>32.96023818478715</v>
       </c>
       <c r="H18">
-        <v>10.67639031170108</v>
+        <v>14.70544886484531</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.390747559985426</v>
+        <v>7.92652979255722</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.09742335391179</v>
+        <v>19.55837259390896</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.96822086841363</v>
+        <v>15.11711046588717</v>
       </c>
       <c r="C19">
-        <v>17.16214786901077</v>
+        <v>9.874758934221383</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.97314868683775</v>
+        <v>19.88017776947012</v>
       </c>
       <c r="F19">
-        <v>36.98779236773498</v>
+        <v>40.50102678934895</v>
       </c>
       <c r="G19">
-        <v>37.19059527861741</v>
+        <v>32.93923579185577</v>
       </c>
       <c r="H19">
-        <v>10.66125167219084</v>
+        <v>14.70810569990482</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.399368646431242</v>
+        <v>7.928942225287885</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.00813246499169</v>
+        <v>19.54008781781929</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.46712901343369</v>
+        <v>15.32979201764861</v>
       </c>
       <c r="C20">
-        <v>17.48252305462869</v>
+        <v>10.04249932625947</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.12407689328782</v>
+        <v>19.89433176464799</v>
       </c>
       <c r="F20">
-        <v>37.52476772199494</v>
+        <v>40.56160837600403</v>
       </c>
       <c r="G20">
-        <v>37.83686781058127</v>
+        <v>33.03481334107488</v>
       </c>
       <c r="H20">
-        <v>10.73058878782202</v>
+        <v>14.69644206819011</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.360618571873236</v>
+        <v>7.918145621066077</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.40754122540382</v>
+        <v>19.6224469888136</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.09229465288206</v>
+        <v>16.02565043560946</v>
       </c>
       <c r="C21">
-        <v>18.52761472698505</v>
+        <v>10.58517783062498</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.62846410536051</v>
+        <v>19.94475578353804</v>
       </c>
       <c r="F21">
-        <v>39.33868175119254</v>
+        <v>40.77903295136633</v>
       </c>
       <c r="G21">
-        <v>40.0398197802453</v>
+        <v>33.37432644886332</v>
       </c>
       <c r="H21">
-        <v>10.9854083345211</v>
+        <v>14.66239276843638</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.231122393904676</v>
+        <v>7.882910862368185</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.70791248733426</v>
+        <v>19.90027477925615</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.11735002440814</v>
+        <v>16.46594874002066</v>
       </c>
       <c r="C22">
-        <v>19.18783312555748</v>
+        <v>10.92423818117149</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.95584973113007</v>
+        <v>19.979821358369</v>
       </c>
       <c r="F22">
-        <v>40.53135464852213</v>
+        <v>40.93134006312195</v>
       </c>
       <c r="G22">
-        <v>41.50344759735204</v>
+        <v>33.60960587919271</v>
       </c>
       <c r="H22">
-        <v>11.16903126277622</v>
+        <v>14.6439948905175</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.146881459385917</v>
+        <v>7.860654856871643</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.52753681181563</v>
+        <v>20.08242545861005</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57358472317761</v>
+        <v>16.23231014306886</v>
       </c>
       <c r="C23">
-        <v>18.83751191076129</v>
+        <v>10.74470509879174</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.78133786915956</v>
+        <v>19.96091489085698</v>
       </c>
       <c r="F23">
-        <v>39.89413917575155</v>
+        <v>40.84912618926572</v>
       </c>
       <c r="G23">
-        <v>40.72005605276983</v>
+        <v>33.48282918379095</v>
       </c>
       <c r="H23">
-        <v>11.06941381476165</v>
+        <v>14.65345985093039</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.191815042156265</v>
+        <v>7.872462893055748</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.09280471281656</v>
+        <v>19.98517194714755</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43992602114763</v>
+        <v>15.31818153122848</v>
       </c>
       <c r="C24">
-        <v>17.46504868488071</v>
+        <v>10.03336637565261</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.11579813361049</v>
+        <v>19.89354363552179</v>
       </c>
       <c r="F24">
-        <v>37.49524217663556</v>
+        <v>40.55822898687402</v>
       </c>
       <c r="G24">
-        <v>37.8012589835951</v>
+        <v>33.0294947567386</v>
       </c>
       <c r="H24">
-        <v>10.72670091815847</v>
+        <v>14.69706331238086</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.36274359505476</v>
+        <v>7.918734596318748</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.38576589126318</v>
+        <v>19.61791937985732</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.97293527634893</v>
+        <v>14.27362219676052</v>
       </c>
       <c r="C25">
-        <v>15.88341194996461</v>
+        <v>9.199287192800755</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.3899222439351</v>
+        <v>19.83010761845088</v>
       </c>
       <c r="F25">
-        <v>34.93996465393279</v>
+        <v>40.28911356802303</v>
       </c>
       <c r="G25">
-        <v>34.75446755538614</v>
+        <v>32.59992365036755</v>
       </c>
       <c r="H25">
-        <v>10.42522119229362</v>
+        <v>14.76048195556084</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.549616378724767</v>
+        <v>7.971982885597968</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.40986762496087</v>
+        <v>19.22589813612981</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.45902438420715</v>
+        <v>21.00761668744708</v>
       </c>
       <c r="C2">
-        <v>8.528097289572054</v>
+        <v>14.62873754338236</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.79150204425236</v>
+        <v>12.85099241135553</v>
       </c>
       <c r="F2">
-        <v>40.13006075389559</v>
+        <v>33.09084753289776</v>
       </c>
       <c r="G2">
-        <v>32.33638601291391</v>
+        <v>32.601694527337</v>
       </c>
       <c r="H2">
-        <v>14.82107250571386</v>
+        <v>10.2560078039758</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.014091543980664</v>
+        <v>4.690218980624449</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.94256346457001</v>
+        <v>17.02793513958837</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.88173193828261</v>
+        <v>19.57988848650435</v>
       </c>
       <c r="C3">
-        <v>8.038005303371792</v>
+        <v>13.72114725861161</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.77046571639309</v>
+        <v>12.48453881296482</v>
       </c>
       <c r="F3">
-        <v>40.04689846697832</v>
+        <v>31.86193776080184</v>
       </c>
       <c r="G3">
-        <v>32.19126801691338</v>
+        <v>31.2032132256164</v>
       </c>
       <c r="H3">
-        <v>14.87069728856357</v>
+        <v>10.17114856724713</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.044455614491246</v>
+        <v>4.78777711570771</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.7547492509905</v>
+        <v>16.07679291803749</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.51612410237143</v>
+        <v>18.65511168460865</v>
       </c>
       <c r="C4">
-        <v>7.719914472239958</v>
+        <v>13.13543000975097</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.76010073047676</v>
+        <v>12.25955753254849</v>
       </c>
       <c r="F4">
-        <v>40.00803581651642</v>
+        <v>31.12114432110713</v>
       </c>
       <c r="G4">
-        <v>32.11879389546263</v>
+        <v>30.37616702523858</v>
       </c>
       <c r="H4">
-        <v>14.90535328309774</v>
+        <v>10.1326754104518</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.06400557225265</v>
+        <v>4.848918102131711</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.64180006536371</v>
+        <v>15.47152374835791</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.36455813565574</v>
+        <v>18.26602999668362</v>
       </c>
       <c r="C5">
-        <v>7.586012827571999</v>
+        <v>12.88958235547861</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19.75652184725252</v>
+        <v>12.16798494614458</v>
       </c>
       <c r="F5">
-        <v>39.99527183353349</v>
+        <v>30.82303422756429</v>
       </c>
       <c r="G5">
-        <v>32.09345080329171</v>
+        <v>30.04739201926385</v>
       </c>
       <c r="H5">
-        <v>14.92052288852982</v>
+        <v>10.12026013709682</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.072200961388942</v>
+        <v>4.874161922587092</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.59641252347251</v>
+        <v>15.21972777388964</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.33924218318894</v>
+        <v>18.20068137300224</v>
       </c>
       <c r="C6">
-        <v>7.563521657162964</v>
+        <v>12.84832704519871</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19.75596662123224</v>
+        <v>12.15278913155608</v>
       </c>
       <c r="F6">
-        <v>39.99333806164358</v>
+        <v>30.77377036039943</v>
       </c>
       <c r="G6">
-        <v>32.08949580100947</v>
+        <v>29.99330644704566</v>
       </c>
       <c r="H6">
-        <v>14.92310485807988</v>
+        <v>10.11839076045152</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.073575629120782</v>
+        <v>4.878373941191986</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.58891589408523</v>
+        <v>15.17761352835482</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.51409014917219</v>
+        <v>18.64991405677377</v>
       </c>
       <c r="C7">
-        <v>7.71812588311631</v>
+        <v>13.13214342245663</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19.76004984887407</v>
+        <v>12.25832196916844</v>
       </c>
       <c r="F7">
-        <v>40.00785123088571</v>
+        <v>31.11710821844544</v>
       </c>
       <c r="G7">
-        <v>32.1184351364141</v>
+        <v>30.37169923496668</v>
       </c>
       <c r="H7">
-        <v>14.90555363407589</v>
+        <v>10.13249498334247</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.064115171501808</v>
+        <v>4.84925719824179</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.64118530339398</v>
+        <v>15.46814846059038</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.2624142094714</v>
+        <v>20.52525333796781</v>
       </c>
       <c r="C8">
-        <v>8.362699091861574</v>
+        <v>14.32169483933391</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>19.78372127173961</v>
+        <v>12.72469424166711</v>
       </c>
       <c r="F8">
-        <v>40.09885861674835</v>
+        <v>32.66444012543234</v>
       </c>
       <c r="G8">
-        <v>32.28290631998611</v>
+        <v>32.11311045302448</v>
       </c>
       <c r="H8">
-        <v>14.83731095091015</v>
+        <v>10.22382160405294</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.024373413283611</v>
+        <v>4.723609958480897</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.87734026698517</v>
+        <v>16.70450080212916</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.63291465482997</v>
+        <v>23.82665845475275</v>
       </c>
       <c r="C9">
-        <v>9.489146979754043</v>
+        <v>16.43001146479702</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.85022786459036</v>
+        <v>13.63531327460079</v>
       </c>
       <c r="F9">
-        <v>40.37373227514463</v>
+        <v>35.79611745311064</v>
       </c>
       <c r="G9">
-        <v>32.73652664586432</v>
+        <v>35.76709647675329</v>
       </c>
       <c r="H9">
-        <v>14.73694713029713</v>
+        <v>10.51817829366249</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.953597445012477</v>
+        <v>4.486255567275136</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.35724548136507</v>
+        <v>19.09388993256955</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.57109545505918</v>
+        <v>26.03174576208241</v>
       </c>
       <c r="C10">
-        <v>10.23170607620581</v>
+        <v>17.84536266987324</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.9111110515796</v>
+        <v>14.29716030348603</v>
       </c>
       <c r="F10">
-        <v>40.63370847337481</v>
+        <v>38.14391392676554</v>
       </c>
       <c r="G10">
-        <v>33.14795514269333</v>
+        <v>38.58548161895092</v>
       </c>
       <c r="H10">
-        <v>14.68393009298633</v>
+        <v>10.81408451897448</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.905914260091892</v>
+        <v>4.316195506886438</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.71735858465026</v>
+        <v>20.85943811046458</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.98139369837426</v>
+        <v>26.98916911591204</v>
       </c>
       <c r="C11">
-        <v>10.55092244841084</v>
+        <v>18.46123553226102</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.94136478352881</v>
+        <v>14.59590785364092</v>
       </c>
       <c r="F11">
-        <v>40.76434623086038</v>
+        <v>39.22072574729508</v>
       </c>
       <c r="G11">
-        <v>33.35153933101523</v>
+        <v>39.89569223341869</v>
       </c>
       <c r="H11">
-        <v>14.66437492228718</v>
+        <v>10.96791721253785</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.885148961780028</v>
+        <v>4.23948796909757</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.88223319428863</v>
+        <v>21.62542911596717</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.13428623767779</v>
+        <v>27.345344993081</v>
       </c>
       <c r="C12">
-        <v>10.66912455633096</v>
+        <v>18.69052998706445</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.95318376168888</v>
+        <v>14.70865160066841</v>
       </c>
       <c r="F12">
-        <v>40.8155695843891</v>
+        <v>39.62971570861547</v>
       </c>
       <c r="G12">
-        <v>33.43093467441599</v>
+        <v>40.39591897712845</v>
       </c>
       <c r="H12">
-        <v>14.65763086926088</v>
+        <v>11.02908874712839</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.877418084120746</v>
+        <v>4.210509934760111</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.94477001978994</v>
+        <v>21.91029169610135</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.10146986961446</v>
+        <v>27.26891667748059</v>
       </c>
       <c r="C13">
-        <v>10.64378680221687</v>
+        <v>18.64132004530785</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.9506222954819</v>
+        <v>14.6843880215521</v>
       </c>
       <c r="F13">
-        <v>40.80446016597873</v>
+        <v>39.54157774951025</v>
       </c>
       <c r="G13">
-        <v>33.41373408368785</v>
+        <v>40.2880030356572</v>
       </c>
       <c r="H13">
-        <v>14.65905384434605</v>
+        <v>11.0157821009206</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.879077185037298</v>
+        <v>4.216748191470947</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.93129782717796</v>
+        <v>21.84917037949755</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.99402249205547</v>
+        <v>27.01859862965102</v>
       </c>
       <c r="C14">
-        <v>10.56070070854159</v>
+        <v>18.48017772224655</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.94232990306255</v>
+        <v>14.60519131619723</v>
       </c>
       <c r="F14">
-        <v>40.76852541904957</v>
+        <v>39.25434900819933</v>
       </c>
       <c r="G14">
-        <v>33.35802545404711</v>
+        <v>39.93676384617358</v>
       </c>
       <c r="H14">
-        <v>14.66380680872111</v>
+        <v>10.97289045625246</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.884510286347634</v>
+        <v>4.237102683007678</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.88737636725412</v>
+        <v>21.64896831803052</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.92788217628129</v>
+        <v>26.8644467024949</v>
       </c>
       <c r="C15">
-        <v>10.50945915492762</v>
+        <v>18.38096571833176</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.93729762697467</v>
+        <v>14.55662957931538</v>
       </c>
       <c r="F15">
-        <v>40.74674191304329</v>
+        <v>39.07857272616131</v>
       </c>
       <c r="G15">
-        <v>33.32420027476685</v>
+        <v>39.72215380315419</v>
       </c>
       <c r="H15">
-        <v>14.66680436991402</v>
+        <v>10.9470027363036</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.887855452081273</v>
+        <v>4.249578686127888</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.86048507317971</v>
+        <v>21.52566581962514</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.54394016372692</v>
+        <v>25.9682724703353</v>
       </c>
       <c r="C16">
-        <v>10.21047004626632</v>
+        <v>17.80455912283536</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.90918492430625</v>
+        <v>14.27758495175883</v>
       </c>
       <c r="F16">
-        <v>40.62541785832121</v>
+        <v>38.07371355097405</v>
       </c>
       <c r="G16">
-        <v>33.13497601868824</v>
+        <v>38.50042252998975</v>
       </c>
       <c r="H16">
-        <v>14.68530031116468</v>
+        <v>10.804431185491</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.907289897656226</v>
+        <v>4.32121961401594</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.7066006630892</v>
+        <v>20.80864286263937</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.30409971738655</v>
+        <v>25.40692796818213</v>
       </c>
       <c r="C17">
-        <v>10.02228577017968</v>
+        <v>17.4438526420712</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.89259013383685</v>
+        <v>14.10576330961445</v>
       </c>
       <c r="F17">
-        <v>40.55414141770537</v>
+        <v>37.45946475913316</v>
       </c>
       <c r="G17">
-        <v>33.0230596516728</v>
+        <v>37.75812148366555</v>
       </c>
       <c r="H17">
-        <v>14.69781917679295</v>
+        <v>10.72200143847749</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.919448998173388</v>
+        <v>4.365319428449743</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.61243291603187</v>
+        <v>20.35935136956119</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.16460350231801</v>
+        <v>25.0797453779849</v>
       </c>
       <c r="C18">
-        <v>9.912298698550263</v>
+        <v>17.23374348185933</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.88328632126216</v>
+        <v>14.0067189432941</v>
       </c>
       <c r="F18">
-        <v>40.51431147241187</v>
+        <v>37.10699013124042</v>
       </c>
       <c r="G18">
-        <v>32.96023818478715</v>
+        <v>37.33380712805598</v>
       </c>
       <c r="H18">
-        <v>14.70544886484531</v>
+        <v>10.67639031170103</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.92652979255722</v>
+        <v>4.390747559985394</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.55837259390896</v>
+        <v>20.09742335391179</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.11711046588717</v>
+        <v>24.96822086841366</v>
       </c>
       <c r="C19">
-        <v>9.874758934221383</v>
+        <v>17.16214786901072</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.88017776947012</v>
+        <v>13.97314868683778</v>
       </c>
       <c r="F19">
-        <v>40.50102678934895</v>
+        <v>36.98779236773499</v>
       </c>
       <c r="G19">
-        <v>32.93923579185577</v>
+        <v>37.19059527861743</v>
       </c>
       <c r="H19">
-        <v>14.70810569990482</v>
+        <v>10.66125167219083</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.928942225287885</v>
+        <v>4.399368646431178</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.54008781781929</v>
+        <v>20.00813246499168</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.32979201764861</v>
+        <v>25.46712901343369</v>
       </c>
       <c r="C20">
-        <v>10.04249932625947</v>
+        <v>17.48252305462859</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.89433176464799</v>
+        <v>14.12407689328792</v>
       </c>
       <c r="F20">
-        <v>40.56160837600403</v>
+        <v>37.52476772199498</v>
       </c>
       <c r="G20">
-        <v>33.03481334107488</v>
+        <v>37.83686781058135</v>
       </c>
       <c r="H20">
-        <v>14.69644206819011</v>
+        <v>10.73058878782203</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.918145621066077</v>
+        <v>4.360618571873206</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.6224469888136</v>
+        <v>20.40754122540377</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.02565043560946</v>
+        <v>27.092294652882</v>
       </c>
       <c r="C21">
-        <v>10.58517783062498</v>
+        <v>18.52761472698517</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.94475578353804</v>
+        <v>14.62846410536046</v>
       </c>
       <c r="F21">
-        <v>40.77903295136633</v>
+        <v>39.33868175119251</v>
       </c>
       <c r="G21">
-        <v>33.37432644886332</v>
+        <v>40.03981978024525</v>
       </c>
       <c r="H21">
-        <v>14.66239276843638</v>
+        <v>10.98540833452108</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.882910862368185</v>
+        <v>4.231122393904676</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.90027477925615</v>
+        <v>21.70791248733426</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.46594874002066</v>
+        <v>28.11735002440822</v>
       </c>
       <c r="C22">
-        <v>10.92423818117149</v>
+        <v>19.18783312555735</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.979821358369</v>
+        <v>14.95584973113007</v>
       </c>
       <c r="F22">
-        <v>40.93134006312195</v>
+        <v>40.53135464852215</v>
       </c>
       <c r="G22">
-        <v>33.60960587919271</v>
+        <v>41.50344759735211</v>
       </c>
       <c r="H22">
-        <v>14.6439948905175</v>
+        <v>11.16903126277619</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.860654856871643</v>
+        <v>4.146881459385849</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.08242545861005</v>
+        <v>22.52753681181559</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.23231014306886</v>
+        <v>27.57358472317777</v>
       </c>
       <c r="C23">
-        <v>10.74470509879174</v>
+        <v>18.83751191076123</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.96091489085698</v>
+        <v>14.78133786915961</v>
       </c>
       <c r="F23">
-        <v>40.84912618926572</v>
+        <v>39.89413917575154</v>
       </c>
       <c r="G23">
-        <v>33.48282918379095</v>
+        <v>40.72005605276989</v>
       </c>
       <c r="H23">
-        <v>14.65345985093039</v>
+        <v>11.06941381476157</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.872462893055748</v>
+        <v>4.191815042156232</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.98517194714755</v>
+        <v>22.09280471281659</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.31818153122848</v>
+        <v>25.43992602114769</v>
       </c>
       <c r="C24">
-        <v>10.03336637565261</v>
+        <v>17.46504868488064</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.89354363552179</v>
+        <v>14.11579813361063</v>
       </c>
       <c r="F24">
-        <v>40.55822898687402</v>
+        <v>37.49524217663557</v>
       </c>
       <c r="G24">
-        <v>33.0294947567386</v>
+        <v>37.80125898359508</v>
       </c>
       <c r="H24">
-        <v>14.69706331238086</v>
+        <v>10.72670091815844</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.918734596318748</v>
+        <v>4.362743595054795</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.61791937985732</v>
+        <v>20.38576589126312</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.27362219676052</v>
+        <v>22.97293527634896</v>
       </c>
       <c r="C25">
-        <v>9.199287192800755</v>
+        <v>15.88341194996453</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.83010761845088</v>
+        <v>13.38992224393509</v>
       </c>
       <c r="F25">
-        <v>40.28911356802303</v>
+        <v>34.93996465393285</v>
       </c>
       <c r="G25">
-        <v>32.59992365036755</v>
+        <v>34.75446755538612</v>
       </c>
       <c r="H25">
-        <v>14.76048195556084</v>
+        <v>10.42522119229363</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.971982885597968</v>
+        <v>4.549616378724733</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.22589813612981</v>
+        <v>18.40986762496086</v>
       </c>
       <c r="N25">
         <v>0</v>
